--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Bug名称</t>
   </si>
@@ -138,6 +138,22 @@
   </si>
   <si>
     <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机碰到敌机或被攻击后血条突然变长而不是变短</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -333,6 +349,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,9 +377,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,7 +688,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -688,16 +704,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -773,7 +789,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -791,17 +807,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -999,8 +1025,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1008,28 +1034,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="15" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Bug名称</t>
   </si>
@@ -156,12 +156,47 @@
     <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹打到boss空指针</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading界面没加载完时按关闭会出错</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘艳玥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗地图的渲染</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面会卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -227,6 +262,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +420,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,7 +734,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -833,37 +879,67 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Bug名称</t>
   </si>
@@ -165,9 +165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2017.8.31</t>
-  </si>
-  <si>
     <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -189,6 +186,22 @@
   </si>
   <si>
     <t>界面会卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时暂停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点暂停会报空指针（boss-&gt;unschedule(SEL_SCHEDULE(&amp;Enemy::enemyBossMove));）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -395,6 +408,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,9 +436,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,7 +747,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -750,16 +763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -890,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="10" t="s">
@@ -902,17 +915,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="10" t="s">
@@ -924,34 +937,44 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1101,8 +1124,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1110,28 +1133,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="16" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Bug名称</t>
   </si>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>陨石和飞机碰撞时候效果不佳，（考虑物理引擎？）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.8.25</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>子弹打到boss空指针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -202,6 +194,42 @@
   </si>
   <si>
     <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss出现就空指针</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨石和飞机碰撞时候效果不佳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏玩一次之后再从选择关卡进入，子弹凭空出现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面的数据和保存界面以及仓库界面的传输</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -283,6 +311,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -744,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -762,7 +803,7 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -774,7 +815,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -800,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -822,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -844,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -852,155 +893,178 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1012,7 +1076,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1024,7 +1088,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1036,7 +1100,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\cocosProjects\PlaneGame\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11157\Desktop\PlaneGame\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20385" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Bug名称</t>
   </si>
@@ -230,6 +230,33 @@
   </si>
   <si>
     <t>重要！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名输入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按T键会出q字母</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘艳玥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>017.8.30</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -446,6 +473,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,12 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,34 +815,34 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="4" customWidth="1"/>
     <col min="6" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="8.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -841,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -863,7 +890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -885,7 +912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -907,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -929,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -951,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -973,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -995,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1039,14 +1066,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="3"/>
@@ -1060,23 +1087,33 @@
       <c r="H12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1088,7 +1125,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1100,7 +1137,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1112,7 +1149,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1124,7 +1161,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1136,7 +1173,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1148,7 +1185,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1160,7 +1197,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1172,7 +1209,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1184,41 +1221,41 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17" t="s">
+    <row r="24" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1244,7 +1281,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
@@ -1262,7 +1299,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -177,59 +177,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>战斗时暂停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点暂停会报空指针（boss-&gt;unschedule(SEL_SCHEDULE(&amp;Enemy::enemyBossMove));）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss出现就空指针</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨石和飞机碰撞时候效果不佳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏玩一次之后再从选择关卡进入，子弹凭空出现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面的数据和保存界面以及仓库界面的传输</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>界面会卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗时暂停</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点暂停会报空指针（boss-&gt;unschedule(SEL_SCHEDULE(&amp;Enemy::enemyBossMove));）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘钟博</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss出现就空指针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>陨石和飞机碰撞时候效果不佳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏玩一次之后再从选择关卡进入，子弹凭空出现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据传送</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗界面的数据和保存界面以及仓库界面的传输</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -446,6 +446,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,12 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -788,7 +788,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -804,16 +804,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -893,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
@@ -937,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
@@ -981,14 +981,14 @@
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="12" t="s">
@@ -1000,17 +1000,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="12" t="s">
@@ -1022,17 +1022,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="12" t="s">
@@ -1044,24 +1044,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>46</v>
+      <c r="I12" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,8 +1188,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1197,28 +1197,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Bug名称</t>
   </si>
@@ -232,12 +232,16 @@
     <t>界面会卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -319,8 +323,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +343,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,7 +412,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,8 +422,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,11 +499,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_Sheet1_3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,7 +812,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -925,8 +949,8 @@
         <v>26</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
+      <c r="H6" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,8 +971,8 @@
         <v>28</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="10" t="s">
-        <v>15</v>
+      <c r="H7" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,8 +1037,8 @@
         <v>36</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="12" t="s">
-        <v>15</v>
+      <c r="H10" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1035,8 +1059,8 @@
         <v>41</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="12" t="s">
-        <v>15</v>
+      <c r="H11" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -472,6 +472,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,9 +500,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,7 +812,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -828,16 +828,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -905,8 +905,8 @@
         <v>19</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
+      <c r="H4" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1212,8 +1212,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1221,28 +1221,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="19" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Bug名称</t>
   </si>
@@ -236,6 +236,19 @@
     <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>战斗数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">每一架敌机的伤害会递增，第一架120，第二架180，第三架240，以此类推
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -411,6 +424,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -426,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +524,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,7 +839,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1088,17 +1115,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Bug名称</t>
   </si>
@@ -243,6 +243,18 @@
   <si>
     <t xml:space="preserve">每一架敌机的伤害会递增，第一架120，第二架180，第三架240，以此类推
 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一分钟之后子弹会开始降速，越来越慢</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -499,6 +511,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -855,16 +867,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1122,7 +1134,7 @@
       <c r="B13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="3"/>
@@ -1137,17 +1149,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1249,8 +1271,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1258,28 +1280,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Bug名称</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>重要！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>界面会卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -259,6 +255,22 @@
   </si>
   <si>
     <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows下战机二技能U释放程序会崩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -505,9 +517,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -851,7 +863,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -867,16 +879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -944,8 +956,8 @@
         <v>19</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="15" t="s">
-        <v>47</v>
+      <c r="H4" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -988,8 +1000,8 @@
         <v>26</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="15" t="s">
-        <v>47</v>
+      <c r="H6" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,8 +1022,8 @@
         <v>28</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="15" t="s">
-        <v>47</v>
+      <c r="H7" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
@@ -1076,8 +1088,8 @@
         <v>36</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="15" t="s">
-        <v>47</v>
+      <c r="H10" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1098,8 +1110,8 @@
         <v>41</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="15" t="s">
-        <v>47</v>
+      <c r="H11" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1120,29 +1132,27 @@
         <v>44</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="H12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="12" t="s">
@@ -1154,17 +1164,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="12" t="s">
@@ -1175,13 +1185,23 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1271,8 +1291,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1280,28 +1300,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="21" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -17,11 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>Bug名称</t>
   </si>
@@ -89,10 +90,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>王子昂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>在仓库界面直接按关闭会报错（时有时无）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -270,7 +267,74 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>技能介绍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>windows下战机二技能U释放程序会崩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少对技能效果和控制的介绍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博、余连玮、王子昂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>余连玮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子昂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中暂停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停后再回来，暂停前发出的子弹卡在屏幕上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技能C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D没有显示</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -354,13 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -368,8 +425,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +450,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -460,7 +530,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,7 +540,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -514,15 +587,18 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,15 +626,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_Sheet1_3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -879,16 +953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -921,21 +995,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,21 +1017,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="14" t="s">
-        <v>46</v>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -965,21 +1039,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -987,21 +1061,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="14" t="s">
-        <v>46</v>
+      <c r="H6" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,21 +1083,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="14" t="s">
-        <v>46</v>
+      <c r="H7" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,21 +1105,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,21 +1127,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -1075,21 +1149,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="14" t="s">
-        <v>46</v>
+      <c r="H10" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1097,66 +1171,66 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H11" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="25"/>
+      <c r="H12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1164,21 +1238,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,58 +1260,88 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1291,8 +1395,8 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1300,28 +1404,28 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Bug名称</t>
   </si>
@@ -331,6 +331,22 @@
   </si>
   <si>
     <t>尚牧杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss效果不佳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -937,7 +953,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1347,13 +1363,23 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Bug名称</t>
   </si>
@@ -46,14 +46,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>制表人：杜恩博</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：本次Bug解决时间是2017.3.7-2017.4.9,Bug状态一栏的选项是：待解决、解决中以及已解决这三个选项。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -98,10 +90,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2017.8.25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>待解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -118,15 +106,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2017.8.25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>待优化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.25</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +331,50 @@
   </si>
   <si>
     <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从存档载入游戏，敌机打不死（无论第一关还是第二关第三关）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备仓库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击保存装备后，再次载入存档并不是装载装备的样子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子昂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表人：潘艳玥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：本次Bug解决时间是2017.8.29-2017.8.31,Bug状态一栏的选项是：待解决、解决中以及已解决这三个选项。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.29</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -952,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -970,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1011,21 +1035,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1033,21 +1057,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -1055,21 +1079,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1077,21 +1101,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1099,21 +1123,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1121,21 +1145,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,21 +1167,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -1165,21 +1189,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1187,21 +1211,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -1209,21 +1233,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -1232,21 +1256,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1254,21 +1278,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,21 +1300,21 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,21 +1322,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1320,21 +1344,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,21 +1366,21 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,46 +1388,66 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1434,8 +1478,8 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="21" t="s">
-        <v>8</v>
+      <c r="E24" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -1443,7 +1487,7 @@
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Bug名称</t>
   </si>
@@ -375,6 +375,44 @@
   </si>
   <si>
     <t>2017.8.29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss死了会game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> module</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程中会突然game module，调试显示bossSkill中的boss为空</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -657,13 +695,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1445,65 +1483,95 @@
         <v>72</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>Bug名称</t>
   </si>
@@ -413,6 +413,26 @@
   </si>
   <si>
     <t>过程中会突然game module，调试显示bossSkill中的boss为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建后立即读取plist有问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>余连玮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +695,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1031,16 +1057,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1488,7 +1514,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
       <c r="B22" s="11" t="s">
         <v>85</v>
       </c>
@@ -1509,7 +1537,7 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>80</v>
@@ -1529,49 +1557,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>Bug名称</t>
   </si>
@@ -433,6 +433,22 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时敌机销毁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>两架敌机同时销毁时，会有残骸没消失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +711,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1038,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1057,16 +1079,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1377,8 +1399,8 @@
         <v>49</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="12" t="s">
-        <v>11</v>
+      <c r="H15" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,49 +1601,69 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>Bug名称</t>
   </si>
@@ -445,6 +445,22 @@
   </si>
   <si>
     <t>尚牧杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆装备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时爆出的装备不是本战机类型的，所以装备仓库没有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -661,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +727,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1060,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1079,16 +1101,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1623,47 +1645,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>Bug名称</t>
   </si>
@@ -465,6 +465,30 @@
   </si>
   <si>
     <t>2017.8.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机不能带着装备一起飞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +751,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1082,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1101,16 +1131,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1288,8 +1318,8 @@
         <v>30</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="12" t="s">
-        <v>11</v>
+      <c r="H9" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
@@ -1509,8 +1539,8 @@
         <v>68</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="12" t="s">
-        <v>11</v>
+      <c r="H19" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1667,47 +1697,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="B27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆出装备后装备在屏幕上不消失</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +563,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -900,16 +918,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1486,47 +1504,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A31:H31"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -306,6 +306,22 @@
   </si>
   <si>
     <t>2017.8.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中获得的装备在仓库里没有</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博、王子昂</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +579,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -899,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A32" sqref="A32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -918,16 +940,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1524,47 +1546,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="B29" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:H32"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -322,6 +322,22 @@
   </si>
   <si>
     <t>刘钟博、王子昂</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩一会儿后生命值、攻击值会爆表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,6 +595,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -940,16 +962,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1566,47 +1588,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="B30" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -334,6 +334,30 @@
   </si>
   <si>
     <t>刘钟博</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机boss</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss出现时机不对，不应按等级出现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级加成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后属性加成太高，导致仓库界面爆表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -538,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,6 +619,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -943,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J29" sqref="J24:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -962,16 +992,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1608,47 +1638,87 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27" t="s">
+      <c r="B31" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A35:H35"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>boss出现就空指针</t>
-  </si>
-  <si>
-    <t>loading界面</t>
-  </si>
-  <si>
-    <t>loading界面没加载完时按关闭会出错</t>
   </si>
   <si>
     <t>潘艳玥</t>
@@ -973,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J24:M29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1144,54 +1138,54 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
@@ -1205,19 +1199,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
@@ -1226,38 +1220,38 @@
       <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
@@ -1272,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1284,7 +1278,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
@@ -1299,14 +1293,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
@@ -1316,33 +1310,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>43</v>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1350,14 +1344,14 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,28 +1366,28 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -1401,7 +1395,7 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="10" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1416,14 +1410,14 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="10" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1431,24 +1425,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1456,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
@@ -1467,32 +1461,32 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1504,14 +1498,14 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="10" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
@@ -1526,199 +1520,189 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>65</v>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="H27" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>70</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>73</v>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="13" t="s">
-        <v>13</v>
+      <c r="H29" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>77</v>
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="H30" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
       <c r="B31" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -358,12 +358,62 @@
     <t>2017.8.31</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径问题，修改创建和读取的路径解决</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在创建界面增加对技能的介绍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给fightlayer新建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UserInfo类对象，进行数据的传输</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在Load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Layer界面进行图片资源的预加载</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -436,6 +486,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -556,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -969,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1121,9 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1145,9 @@
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1169,9 @@
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1128,12 +1193,14 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1143,14 +1210,18 @@
       <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="34" t="s">
+        <v>90</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
@@ -1172,7 +1243,9 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1267,9 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1209,14 +1284,18 @@
       <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="34" t="s">
+        <v>89</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1239,7 +1318,9 @@
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1342,9 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1283,12 +1366,14 @@
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1298,14 +1383,18 @@
       <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1327,7 +1416,9 @@
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1440,9 @@
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1371,7 +1464,9 @@
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>17</v>
       </c>
@@ -1393,7 +1488,9 @@
       <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>66</v>
       </c>
@@ -1415,7 +1512,9 @@
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1536,9 @@
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H21" s="10" t="s">
         <v>66</v>
       </c>
@@ -1459,12 +1560,14 @@
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H22" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1474,14 +1577,18 @@
       <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H23" s="10" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1610,9 @@
       <c r="F24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H24" s="10" t="s">
         <v>66</v>
       </c>
@@ -1525,7 +1634,9 @@
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H25" s="10" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +1680,9 @@
       <c r="F27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="34" t="s">
+        <v>86</v>
+      </c>
       <c r="H27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1591,9 +1704,11 @@
       <c r="F28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="13" t="s">
-        <v>13</v>
+      <c r="G28" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -1613,7 +1728,9 @@
       <c r="F29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="34" t="s">
+        <v>86</v>
+      </c>
       <c r="H29" s="10" t="s">
         <v>66</v>
       </c>
@@ -1635,9 +1752,11 @@
       <c r="F30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="13" t="s">
-        <v>13</v>
+      <c r="G30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -85,21 +85,12 @@
     <t>Bug状态</t>
   </si>
   <si>
-    <t>仓库界面内存泄露</t>
-  </si>
-  <si>
-    <t>在仓库界面直接按关闭会报错（时有时无）</t>
-  </si>
-  <si>
     <t>王子昂</t>
   </si>
   <si>
     <t>2017.8.29</t>
   </si>
   <si>
-    <t>待解决</t>
-  </si>
-  <si>
     <t>战机移动</t>
   </si>
   <si>
@@ -128,18 +119,6 @@
   </si>
   <si>
     <t>boss出现就空指针</t>
-  </si>
-  <si>
-    <t>潘艳玥</t>
-  </si>
-  <si>
-    <t>战斗地图的渲染</t>
-  </si>
-  <si>
-    <t>界面会卡</t>
-  </si>
-  <si>
-    <t>解决中</t>
   </si>
   <si>
     <t>战斗时暂停</t>
@@ -275,108 +254,102 @@
     <t>游戏时爆出的装备不是本战机类型的，所以装备仓库没有</t>
   </si>
   <si>
-    <t>战机不能带着装备一起飞</t>
+    <t>制表人：潘艳玥</t>
+  </si>
+  <si>
+    <t>注：本次Bug解决时间是2017.8.29-2017.8.31,Bug状态一栏的选项是：待解决、解决中以及已解决这三个选项。</t>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆出装备后装备在屏幕上不消失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8.31</t>
-  </si>
-  <si>
-    <t>制表人：潘艳玥</t>
-  </si>
-  <si>
-    <t>注：本次Bug解决时间是2017.8.29-2017.8.31,Bug状态一栏的选项是：待解决、解决中以及已解决这三个选项。</t>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中获得的装备在仓库里没有</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博、王子昂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>战斗界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆出装备后装备在屏幕上不消失</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩一会儿后生命值、攻击值会爆表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏中获得的装备在仓库里没有</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌机boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss出现时机不对，不应按等级出现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘钟博、王子昂</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩一会儿后生命值、攻击值会爆表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘钟博</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级加成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后属性加成太高，导致仓库界面爆表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌机boss</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss出现时机不对，不应按等级出现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级加成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后属性加成太高，导致仓库界面爆表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.30</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>路径问题，修改创建和读取的路径解决</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>在创建界面增加对技能的介绍</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,29 +364,22 @@
       </rPr>
       <t>UserInfo类对象，进行数据的传输</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在Load</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Layer界面进行图片资源的预加载</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博、王子昂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整属性设置，改变仓库的参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -453,28 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -497,7 +442,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,19 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,24 +528,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,64 +561,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,13 +621,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -715,16 +636,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_3" xfId="4" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="常规_Sheet1_3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1045,16 +961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1082,748 +998,682 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+        <v>75</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+        <v>75</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="18" t="s">
         <v>61</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>68</v>
+      <c r="B27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="B28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>73</v>
       </c>
+      <c r="D28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="G28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A31:H31"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1841,7 +1691,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111096" bottom="0.97986111111111096" header="0.50972222222222197" footer="0.50972222222222197"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
   <headerFooter alignWithMargins="0"/>
@@ -1859,7 +1709,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111096" bottom="0.97986111111111096" header="0.50972222222222197" footer="0.50972222222222197"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
   <headerFooter alignWithMargins="0"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\cocosProjects\PlaneGame\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cocos\PlaneGame\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -320,14 +320,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>等级加成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后属性加成太高，导致仓库界面爆表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.8.31</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -367,19 +359,71 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>刘钟博、王子昂</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>调整属性设置，改变仓库的参数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后属性加成太高，导致仓库界面爆表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级加成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能CD有时会卡在1时，但是可以释放</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机2技能2打击范围太小</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚牧杰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法穿装备飞行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.31</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -441,8 +485,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,9 +637,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +670,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,11 +696,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规_Sheet1_3" xfId="2"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -941,38 +1011,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="8.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1016,13 +1086,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1040,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1064,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1088,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1112,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1136,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1152,8 +1222,8 @@
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>80</v>
+      <c r="D9" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1162,14 +1232,14 @@
         <v>19</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1187,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1211,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1235,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1251,8 +1321,8 @@
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>79</v>
+      <c r="D13" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>36</v>
@@ -1261,13 +1331,13 @@
         <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1285,13 +1355,13 @@
         <v>19</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1309,13 +1379,13 @@
         <v>19</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1333,13 +1403,13 @@
         <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1357,13 +1427,13 @@
         <v>19</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1381,13 +1451,13 @@
         <v>19</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1405,13 +1475,13 @@
         <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1429,13 +1499,13 @@
         <v>19</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1445,8 +1515,8 @@
       <c r="C21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>78</v>
+      <c r="D21" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>36</v>
@@ -1455,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1472,20 +1542,20 @@
         <v>52</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>33</v>
+      <c r="E22" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>76</v>
+      <c r="G22" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1502,21 +1572,21 @@
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>76</v>
+      <c r="G23" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="8"/>
@@ -1526,21 +1596,21 @@
       <c r="F24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>77</v>
+      <c r="G24" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="8"/>
@@ -1550,45 +1620,45 @@
       <c r="F25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>77</v>
+      <c r="G25" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>67</v>
+      <c r="E26" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>77</v>
+      <c r="G26" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="8"/>
@@ -1598,80 +1668,135 @@
       <c r="F27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>77</v>
+      <c r="G27" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="24" t="s">
+      <c r="B28" s="24" t="s">
         <v>81</v>
       </c>
+      <c r="C28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>60</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27" t="s">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.55069444444444404" right="0.55069444444444404" top="0.78680555555555598" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1681,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -1689,7 +1814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111096" bottom="0.97986111111111096" header="0.50972222222222197" footer="0.50972222222222197"/>
@@ -1699,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -1707,7 +1832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111096" bottom="0.97986111111111096" header="0.50972222222222197" footer="0.50972222222222197"/>

--- a/files/BugList表.xlsx
+++ b/files/BugList表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <r>
       <rPr>
@@ -254,9 +254,6 @@
     <t>游戏时爆出的装备不是本战机类型的，所以装备仓库没有</t>
   </si>
   <si>
-    <t>制表人：潘艳玥</t>
-  </si>
-  <si>
     <t>注：本次Bug解决时间是2017.8.29-2017.8.31,Bug状态一栏的选项是：待解决、解决中以及已解决这三个选项。</t>
   </si>
   <si>
@@ -395,10 +392,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>尚牧杰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>无法穿装备飞行</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -416,6 +409,22 @@
   </si>
   <si>
     <t>2017.8.31</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘钟博</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击退出游戏时而崩溃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -574,17 +583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,35 +674,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1015,7 +1007,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1031,16 +1023,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1086,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>14</v>
@@ -1110,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>14</v>
@@ -1134,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1158,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>14</v>
@@ -1182,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>14</v>
@@ -1206,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>14</v>
@@ -1223,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1232,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>14</v>
@@ -1257,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>14</v>
@@ -1281,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>14</v>
@@ -1305,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
@@ -1322,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>36</v>
@@ -1331,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>14</v>
@@ -1355,10 +1347,10 @@
         <v>19</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1379,10 +1371,10 @@
         <v>19</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1403,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>14</v>
@@ -1427,10 +1419,10 @@
         <v>19</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
@@ -1451,7 +1443,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>14</v>
@@ -1475,10 +1467,10 @@
         <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1499,10 +1491,10 @@
         <v>19</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
@@ -1516,7 +1508,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>36</v>
@@ -1525,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>14</v>
@@ -1543,16 +1535,16 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
@@ -1573,10 +1565,10 @@
         <v>19</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1584,20 +1576,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>14</v>
@@ -1608,20 +1600,20 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>14</v>
@@ -1632,23 +1624,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1656,20 +1648,20 @@
         <v>25</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>14</v>
@@ -1680,122 +1672,130 @@
         <v>26</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>86</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="33" t="s">
-        <v>84</v>
+      <c r="H29" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="33" t="s">
-        <v>84</v>
+      <c r="H30" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="28" t="s">
+      <c r="H31" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="A33:H33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
